--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556487_nan_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556487_nan_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.26277931667837867, 0.3966213220992629]</t>
+          <t>[0.26096798514997205, 0.3984326536276695]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.264535365308461e-09</v>
+        <v>2.021911749139349e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.264535365308461e-09</v>
+        <v>2.021911749139349e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.056631763369539</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2578949563923087, -0.8553685703467702]</t>
+          <t>[-1.2578949563923096, -0.8553685703467693]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.276010539077076, 0.34764351860260484]</t>
+          <t>[0.2759859091735271, 0.34766814850615374]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.708944180085382e-14</v>
+        <v>2.753353101070388e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.708944180085382e-14</v>
+        <v>2.753353101070388e-14</v>
       </c>
       <c r="W2" t="n">
         <v>4.024264264264364</v>
       </c>
       <c r="X2" t="n">
-        <v>3.257737737737818</v>
+        <v>3.257737737737815</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.79079079079091</v>
+        <v>4.790790790790912</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556487_nan_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556487_nan_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.26096798514997205, 0.3984326536276695]</t>
+          <t>[0.2624432074067384, 0.39695743137090317]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.021911749139349e-09</v>
+        <v>1.381341929729274e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.021911749139349e-09</v>
+        <v>1.381341929729274e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.056631763369539</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2578949563923096, -0.8553685703467693]</t>
+          <t>[-1.2578949563923087, -0.8553685703467702]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.2759859091735271, 0.34766814850615374]</t>
+          <t>[0.27601407298426445, 0.3476399846954164]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.753353101070388e-14</v>
+        <v>2.708944180085382e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.753353101070388e-14</v>
+        <v>2.708944180085382e-14</v>
       </c>
       <c r="W2" t="n">
         <v>4.024264264264364</v>
       </c>
       <c r="X2" t="n">
-        <v>3.257737737737815</v>
+        <v>3.257737737737818</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.790790790790912</v>
+        <v>4.79079079079091</v>
       </c>
     </row>
   </sheetData>
